--- a/data/case1/2/V1_3.xlsx
+++ b/data/case1/2/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999043230936</v>
+        <v>0.99999998603162332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9950635628804434</v>
+        <v>0.9951161208588728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97236865537368899</v>
+        <v>0.97511854951286581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96351476236434386</v>
+        <v>0.96623165583902104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95509973580279306</v>
+        <v>0.95778689508192838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93489063483333035</v>
+        <v>0.94001098753227108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92965606317906868</v>
+        <v>0.93841893926472908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92183639137671158</v>
+        <v>0.93428345976429417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.91269049740504915</v>
+        <v>0.93234449904993388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.90445501524327776</v>
+        <v>0.93133580039802566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90321178125291857</v>
+        <v>0.93109830692008499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.90110250816040338</v>
+        <v>0.93090315067861285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.893619437313522</v>
+        <v>0.93019897710488963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.89135489168943249</v>
+        <v>0.93048891967413527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.890389600607567</v>
+        <v>0.93225326839256151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.88972322027637707</v>
+        <v>0.93500954435269767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.88601525379907531</v>
+        <v>0.94344574959887217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.88490635654051075</v>
+        <v>0.94916297287933049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99401039828002524</v>
+        <v>0.99309850810569578</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98689349953360073</v>
+        <v>0.97736203349048323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98549503857395315</v>
+        <v>0.97596358544273865</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98423053722578846</v>
+        <v>0.97469907850577886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96338220673820274</v>
+        <v>0.96808324515000854</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95036035778298356</v>
+        <v>0.95506182172925191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94390320994322607</v>
+        <v>0.94860475749632234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93383781575232827</v>
+        <v>0.93635563677796729</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93262331990688419</v>
+        <v>0.93150909111297542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92720021800211661</v>
+        <v>0.91003625398423016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92391454786923766</v>
+        <v>0.89476520434479867</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91734518511770202</v>
+        <v>0.88819498955918263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90969229257911643</v>
+        <v>0.88054160950272753</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90801303875940398</v>
+        <v>0.8788623792632575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90749304093130134</v>
+        <v>0.87834239579793194</v>
       </c>
     </row>
   </sheetData>
